--- a/biology/Botanique/Turritis_glabra/Turritis_glabra.xlsx
+++ b/biology/Botanique/Turritis_glabra/Turritis_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arabette glabre
 L'Arabette glabre, Tourette glabre ou Tourelle (Turritis glabra), est une espèce de plantes herbacées de la famille des Brassicacées. C'est une bisannuelle à petites fleurs blanches.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Arabis glabra (L.) Bernh., 1800
 Arabis perfoliata Lam.</t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La tige est dressée et robuste, simple ou ramifiée au sommet, un peu velue à la base. La hauteur varie de 30 à 90 cm. On trouve deux types de feuilles: les basilaires sont oblongues à bord sinués ou dentées disposées en rosette desséchées à la floraison; les feuilles de la tige sont dressées, glabres, entières et embrassantes avec des oreillettes. Fleurs petites blanc-jaunâtre. Fruits : siliques de 5-6 cm et aplaties[1].</t>
+La tige est dressée et robuste, simple ou ramifiée au sommet, un peu velue à la base. La hauteur varie de 30 à 90 cm. On trouve deux types de feuilles: les basilaires sont oblongues à bord sinués ou dentées disposées en rosette desséchées à la floraison; les feuilles de la tige sont dressées, glabres, entières et embrassantes avec des oreillettes. Fleurs petites blanc-jaunâtre. Fruits : siliques de 5-6 cm et aplaties.</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémicryptophyte, souvent bisannuelle. Floraison mai à juillet.
 </t>
@@ -605,7 +623,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Étages collinéen et montagnard (jusqu'à 800 m).
 Talus, lisières forestières, coupes forestières, chemins forestiers.
@@ -638,7 +658,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique et subméditerranéenne.
 France: disséminé.
@@ -670,7 +692,9 @@
           <t>Usages et propriétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Antiscorbutique.[réf. nécessaire]
 </t>
